--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_158.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_158.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09475762228558894</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E']]</t>
-        </is>
+          <t>jaah_6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_233</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08465818759936408</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E']]</t>
+          <t>[['Ab', 'Ab', 'Eb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(51.315598, 63.292358)]</t>
+          <t>[['Bb', 'Bb/2', 'F']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.656213, 8.269555)]</t>
+          <t>[('0:03:54.420000', '0:03:58.130000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:01:34.303000', '0:01:39.780000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
-        </is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_160</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1517241379310345</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['C', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(2.6, 4.5)]</t>
+          <t>[['Eb:maj', 'Db:maj', 'Ab:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:34.755034', '0:00:40.803832')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:45.887000', '0:00:51.649000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2305986696230599</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_180</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2003577817531306</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F', 'C:7']]</t>
+          <t>[['B', 'F#', 'B', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[['F', 'C', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(49.61, 56.99)]</t>
+          <t>[('0:00:45.875873', '0:00:53.747437')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:00.440395', '0:00:07.265318')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_224</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1736111111111111</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A', 'D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(70.06, 87.32)]</t>
+          <t>[['C', 'F', 'G', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.24, 21.16)]</t>
+          <t>[('0:00:00.366281', '0:00:10.966190')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:23.725555', '0:00:34.801473')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_243</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2111111111111111</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C#:min', 'A', 'B', 'E']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(8.319115, 15.029682)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(18.083616, 25.815861)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:16.840000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:08.640000', '0:01:23.840000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_26</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_56</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.08421985815602837</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F#:hdim7', 'B:(3,5,b7,b9)', 'E:min7', 'A:7'], ['A:min7', 'D:7', 'G:maj6', 'E:min7']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5714285714285714</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Bb:min6', 'C:(3,5,b7,b9)', 'F:min7', 'Bb:7'], ['Bb:min7', 'Eb:7', 'Ab:maj6', 'Ab:maj6']]</t>
+          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G'], ['C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(49.0, 53.99), (23.94, 28.95)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D'], ['G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(29.5, 32.74), (7.73, 11.03)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:28.210155', '0:00:42.831033'), ('0:00:26.391305', '0:00:41.205636')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:13.919000', '0:02:22.421000'), ('0:02:14.784000', '0:02:23.322000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(20.56, 23.94)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1514423076923077</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A/3']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_43</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(13.527, 17.058)]</t>
+          <t>[['E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(4.25, 9.179)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:06.357029', '0:00:26.140430')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(35.62, 41.54), (1.46, 9.84)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(40.44, 43.32), (253.84, 257.6)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(27.76, 40.18)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(121.74, 123.78)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_8</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E', 'G#']]</t>
-        </is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5046052631578948</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'B:maj/D#']]</t>
+          <t>[['A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(14.032548, 17.97994)]</t>
+          <t>[['G/3', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(62.36, 68.9)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.421247', '0:00:19.441473')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:02:23.182222', '0:02:53.495873')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'D/b7', 'G/3']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(122.976598, 130.383764)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(32.879478, 37.291269)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:08.340000', '0:00:26.400000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_18</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(2.3, 7.04)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(89.08, 98.1)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:47.800000', '0:01:38.980000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1678571428571429</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'F', 'C/3'], ['G', 'C', 'G/3']]</t>
-        </is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'C:maj', 'G/3'], ['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(45.670113, 48.251979), (22.020589, 24.598004)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(73.89, 81.91), (11.384, 18.318)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:10.940000', '0:00:14.560000'), ('0:00:19.260000', '0:00:22.260000'), ('0:00:15.120000', '0:00:16.420000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1289473684210526</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'F'], ['C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(12.376258, 19.597664), (10.634761, 15.986961)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(31.840929, 37.216349), (32.920657, 39.410634)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(6.86, 25.5)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(62.9, 72.68)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
